--- a/medicine/Psychotrope/Rasteau_(AOC)/Rasteau_(AOC).xlsx
+++ b/medicine/Psychotrope/Rasteau_(AOC)/Rasteau_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le rasteau[2] est un vin d'appellation d'origine contrôlée produit sur les communes de Cairanne, Rasteau et Sablet, dans le département français de Vaucluse en région Provence-Alpes-Côte d'Azur. 
+Le rasteau est un vin d'appellation d'origine contrôlée produit sur les communes de Cairanne, Rasteau et Sablet, dans le département français de Vaucluse en région Provence-Alpes-Côte d'Azur. 
 Pour les vins rouges, seule la commune de Rasteau a le droit d'en produire. La reconnaissance d’AOC date de 1944 pour les vins doux naturels et de 2010 pour les vins rouges secs.
 </t>
         </is>
@@ -515,18 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-Sous la colonisation romaine ce site, proche de Vaison-la-Romaine, fut la villa rustica d'un préfet de cohorte de la cité des Voconces.  La naissance présumée de Rasteau est à partir de – 30 avant J.C
-Moyen Âge
-La plus ancienne mention du village a été faite en 1009 dans un contrat de précaire signé par Pierre de Mirabel, évêque de Vaison.
-Période moderne
-Durant toute cette période, ce lieu resta aux évêques de Vaison qui en étaient seigneurs spirituels et temporels.
-Dans la commune, une chapelle du XVIIe siècle est placée sous le vocable de Notre-Dame des Vignerons. En 1753, une tour abritant une horloge est construite au-dessus du Portalet.
-Période contemporaine
-La cave coopérative est créée en 1925. Les vignerons commencent à privilégier la qualité sur la quantité. Puis se créent, au cours des années 1970 des caves indépendantes.
-Une fête des vins originale, appelée Nuit des vins se déroule pour la première fois le 14 août 1986. Depuis, face à son succès, elle a été renouvelée chaque année à la mi-août.
-Appellation d'origine contrôlée
-Créée le 5 janvier 1944[3], l'AOC a vu son cahier des charges évoluer à plusieurs reprises, en 1972, 2009, 2010 et 2011. La version actuellement homologuée a été adoptée le 11 janvier 2024[4].
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous la colonisation romaine ce site, proche de Vaison-la-Romaine, fut la villa rustica d'un préfet de cohorte de la cité des Voconces.  La naissance présumée de Rasteau est à partir de – 30 avant J.C
 </t>
         </is>
       </c>
@@ -552,12 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La plus ancienne graphie attestée est de Rastellum, reprenant le vocable latin rastellum (râteau). C'est une métaphore d'origine oronymique[5].
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus ancienne mention du village a été faite en 1009 dans un contrat de précaire signé par Pierre de Mirabel, évêque de Vaison.
 </t>
         </is>
       </c>
@@ -583,110 +596,615 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant toute cette période, ce lieu resta aux évêques de Vaison qui en étaient seigneurs spirituels et temporels.
+Dans la commune, une chapelle du XVIIe siècle est placée sous le vocable de Notre-Dame des Vignerons. En 1753, une tour abritant une horloge est construite au-dessus du Portalet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cave coopérative est créée en 1925. Les vignerons commencent à privilégier la qualité sur la quantité. Puis se créent, au cours des années 1970 des caves indépendantes.
+Une fête des vins originale, appelée Nuit des vins se déroule pour la première fois le 14 août 1986. Depuis, face à son succès, elle a été renouvelée chaque année à la mi-août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Appellation d'origine contrôlée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Créée le 5 janvier 1944, l'AOC a vu son cahier des charges évoluer à plusieurs reprises, en 1972, 2009, 2010 et 2011. La version actuellement homologuée a été adoptée le 11 janvier 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus ancienne graphie attestée est de Rastellum, reprenant le vocable latin rastellum (râteau). C'est une métaphore d'origine oronymique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Situation géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'aire d'appellation rasteau se situe dans le nord Vaucluse entre les vallées de l'Aigues et de l'Ouvèze. 
-Orographie
-Le village émerge au-dessus de ses vignes plantées soit en terrasses, soit en croupes arrondies, la quasi-totalité de son vignoble se situe sur la « montagne » de Ventabren. Les pentes de ses coteaux exposés plein sud font un paravent au mistral.
-Géologie
-La « montagne » de Ventabren est une ancienne terrasse du diluvium alpin composée d'une matrice d'argile rouge, très riche en galets roulés de quartz et de calcaire gris.
-Climatologie
-Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps[6]. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire d'appellation rasteau se situe dans le nord Vaucluse entre les vallées de l'Aigues et de l'Ouvèze. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le village émerge au-dessus de ses vignes plantées soit en terrasses, soit en croupes arrondies, la quasi-totalité de son vignoble se situe sur la « montagne » de Ventabren. Les pentes de ses coteaux exposés plein sud font un paravent au mistral.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La « montagne » de Ventabren est une ancienne terrasse du diluvium alpin composée d'une matrice d'argile rouge, très riche en galets roulés de quartz et de calcaire gris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le climat de ce terroir est soumis à un rythme à quatre temps : deux saisons sèches (une brève en hiver, une très longue et accentuée en été), deux saisons pluvieuses, en automne (pluies abondantes et brutales) et au printemps. Sa spécificité est son climat méditerranéen qui constitue un atout exceptionnel :
 Le mistral assainit le vignoble ;
 La saisonnalité des pluies est très marquée ;
 Les températures sont très chaudes pendant l'été.
-Tableau comparatif des précipitations relevées en nord Vaucluse lors de l'année 2006[7].
-Températures relevées en nord Vaucluse lors de l'année 2006[7].
+Tableau comparatif des précipitations relevées en nord Vaucluse lors de l'année 2006.
+Températures relevées en nord Vaucluse lors de l'année 2006.
 Tableau des différentes vitesses du mistral enregistrées et à sa fréquence au cours de l'année 2006. Une partie du  vignoble est protégée du mistral par la montagne de Ventabren.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Rasteau_(AOC)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Présentation
-Le vignoble s'étend sur la seule commune de Rasteau.
-Encépagement
-Pour le vin rouge :
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur la seule commune de Rasteau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Pour le vin rouge :
 cépage principal : grenache noir (supérieur ou égal à 50%)     ;
 cépages complémentaires : mourvèdre N, syrah N ;
 cépages accessoires : bourboulenc B, brun argenté N (localement dénommé camarèse ou vaccarèse), carignan N, cinsaut N, clairette B, clairette rose Rs, counoise N, grenache blanc B, grenache gris G, marsanne B, muscardin N, piquepoul blanc B, piquepoul noir N, roussanne B, terret noir N, ugni blanc B et viognier B.
 Pour le vin doux naturel :
 cépages principaux : grenache N, grenache gris G, grenache blanc B. (supérieur ou égal à 90%)
-cépages accessoires : bourboulenc B, brun argenté N (localement dénommé camarèse ou vaccarèse), carignan N, cinsaut N, clairette B, clairette rose Rs, counoise N, marsanne B, mourvèdre N, muscardin N, piquepoul blanc B, piquepoul noir N, roussanne B, syrah N, terret noir N, ugni blanc B et viognier B.
-Méthodes culturales et réglementaires
-Sur un hectare de vigne, un viticulteur peut produire :30 hl  de Rasteau vin doux naturel, 38 hl  de vin A.O.C Rasteau, 46 hl de vin A.O.C Côtes du Rhône 
+cépages accessoires : bourboulenc B, brun argenté N (localement dénommé camarèse ou vaccarèse), carignan N, cinsaut N, clairette B, clairette rose Rs, counoise N, marsanne B, mourvèdre N, muscardin N, piquepoul blanc B, piquepoul noir N, roussanne B, syrah N, terret noir N, ugni blanc B et viognier B.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Méthodes culturales et réglementaires</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur un hectare de vigne, un viticulteur peut produire :30 hl  de Rasteau vin doux naturel, 38 hl  de vin A.O.C Rasteau, 46 hl de vin A.O.C Côtes du Rhône 
 Sur une superficie de 733 hectares, ce terroir produit annuellement 25 657 hectolitres pour un rendement moyen de 35 hl/ha.
-Terroir et vins
-L'ancienne terrasse du diluvium alpin est composée d'une matrice d'argile rouge, très riche en galets roulés de quartz et de calcaire gris. Ce vignoble produit des vins d'une grande qualité tant en blanc, rosé et rouge. Les rouges dégagent à l'agitation un nez de cassis et d'épices douces. Charnus et bien structurés, ils ont un beau potentiel de vieillissement.
-Les millésimes
-Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Terroir et vins</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancienne terrasse du diluvium alpin est composée d'une matrice d'argile rouge, très riche en galets roulés de quartz et de calcaire gris. Ce vignoble produit des vins d'une grande qualité tant en blanc, rosé et rouge. Les rouges dégagent à l'agitation un nez de cassis et d'épices douces. Charnus et bien structurés, ils ont un beau potentiel de vieillissement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Les millésimes</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils correspondent à ceux du vignoble de la vallée du Rhône. Ils sont notés : année exceptionnelle , grande année , bonne année ***, année moyenne **, année médiocre *.
 Soit sur 90 ans, 24 années exceptionnelles, 26 grandes années, 16 bonnes années, 22 années moyennes et 2 années médiocres.
-Structure des exploitations
-La cave coopérative représente près de 55 % de la production et regroupe 170 adhérents. À ses côtés, ce sont 34 caves indépendantes qui vinifient les vins de Rasteau dont 20 sont installées sur le territoire de la commuune.
-Type de vins et gastronomie
-Le rouge qui possède une grande aptitude au vieillissement, - dix ans et plus - est traditionnellement conseillé sur du gibier et de la venaison et il s'accorde parfaitement avec les daubes (avignonnaises ou provençale), les civets de lièvre ou de sanglier et avec une gardianne de taureau. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cave coopérative représente près de 55 % de la production et regroupe 170 adhérents. À ses côtés, ce sont 34 caves indépendantes qui vinifient les vins de Rasteau dont 20 sont installées sur le territoire de la commuune.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Type de vins et gastronomie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rouge qui possède une grande aptitude au vieillissement, - dix ans et plus - est traditionnellement conseillé sur du gibier et de la venaison et il s'accorde parfaitement avec les daubes (avignonnaises ou provençale), les civets de lièvre ou de sanglier et avec une gardianne de taureau. 
 Le rosé, en fonction de sa vinification - par saignée ou par pressurage -  peut se garder entre 2 ou 4 ans. C'est un vin à boire à table avec les charcuteries et les fromages. Il s'accorde parfaitement avec la cuisine asiatique.
 Le blanc, traditionnellement, est conseillé soit en apéritif, soit sur des poissons, coquillages et crustacés. Il se révèle parfait en accompagnement d'un fromage de chèvre.
-Commercialisation
-Plus de 80 % des vins de Rasteau sont commercialisés en bouteilles et 40 % partent à l’export.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Rasteau_(AOC)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus de 80 % des vins de Rasteau sont commercialisés en bouteilles et 40 % partent à l’export.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Les principaux producteurs de l'appellation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Domaine Combe Julière
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Domaine Combe Julière
 Domaine Martin
 Cave des vins de Rasteau
 SCEA Domaine Les Girasols
@@ -698,18 +1216,87 @@
 Domaine des Nymphes du Grand Jas
 Domaine Didier Charavin
 Domaine Gramiller
-Domaine la Girardière
-Caveaux de dégustation
-Une charte de qualité, à laquelle adhèrent caves et domaines de Rasteau, a été mise en place dans la vallée du Rhône par Inter Rhône[9]. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les professionnels[10]. 
-La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres)[9].
-L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation[9]. 
+Domaine la Girardière</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Les principaux producteurs de l'appellation</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Caveaux de dégustation</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une charte de qualité, à laquelle adhèrent caves et domaines de Rasteau, a été mise en place dans la vallée du Rhône par Inter Rhône. Elle propose trois catégories différentes d'accueil en fonction des prestations offertes par les professionnels. 
+La première - dite accueil de qualité - définit les conditions de cet accueil. Un panneau à l'entrée doit signaler que celui-ci est adhérent à la charte. Ce qui exige que ses abords soient en parfait état et entretenus et qu'il dispose d'un parking proche. L'intérieur du caveau doit disposer d'un sanitaire et d'un point d'eau, les visiteurs peuvent s'asseoir et ils ont de plus l'assurance que locaux et ensemble du matériel utilisé sont d'une propreté irréprochable (sols, table de dégustation, crachoirs, verres).
+L'achat de vin à l'issue de la dégustation n'est jamais obligatoire. Celle-ci s'est faite dans des verres de qualité (minimum INAO). Les vins ont été servis à température idéale et les enfants se sont vu proposer des jus de fruits ou des jus de raisin. Outre l'affichage de ses horaires et des permanences, le caveau dispose de fiches techniques sur les vins, affiche les prix et offre des brochures touristiques sur l'appellation. 
 Caveaux à Rasteau
-La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais[11]
+La seconde - dite accueil de service - précise que le caveau est ouvert cinq jours sur sept toute l'année et six jours sur sept de juin à septembre. La dégustation se fait dans des verres cristallins voire en cristal. Accessible aux personnes à mobilité réduite, il est chauffé l'hiver et frais l'été, de plus il dispose d'un éclairage satisfaisant (néons interdits). Sa décoration est en relation avec la vigne et le vin, une carte de l'appellation est affichée. Il dispose d'un site internet et fournit à sa clientèle des informations sur la gastronomie et les produits agroalimentaires locaux, les lieux touristiques et les autres caveaux adhérant à la charte. Des plus les fiches techniques sur les vins proposés sont disponibles en anglais
 Caveaux à Rasteau
-La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais[12].
+La troisième - dite accueil d'excellence - propose d'autres services dont la mise en relation avec d'autres caveaux, la réservation de restaurants ou d'hébergements. Le caveau assure l'expédition en France pour un minimum de vingt-quatre bouteilles. Il dispose d'un site Internet en version anglaise et le personnel d'accueil parle au moins l'anglais.
 Caveaux à Rasteau
-Musée du Vigneron
-À la sortie du village, sur la route de Roaix, en direction de Vaison-la-Romaine, se trouve le Musée du Vigneron qui permet de découvrir, en cours de visite des sept salles, des outils vignerons, les anciens système de soins de la vigne (sulfatage), toute une collection de cartes postales anciennes sur la viticulture vauclusienne. Ce tour d'horizon se termine par une dégustation des vins du propriétaire, vigneron à Rasteau et à Châteauneuf-du-Pape[13].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rasteau_(AOC)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Les principaux producteurs de l'appellation</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Musée du Vigneron</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la sortie du village, sur la route de Roaix, en direction de Vaison-la-Romaine, se trouve le Musée du Vigneron qui permet de découvrir, en cours de visite des sept salles, des outils vignerons, les anciens système de soins de la vigne (sulfatage), toute une collection de cartes postales anciennes sur la viticulture vauclusienne. Ce tour d'horizon se termine par une dégustation des vins du propriétaire, vigneron à Rasteau et à Châteauneuf-du-Pape.
 </t>
         </is>
       </c>
